--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off</t>
+          <t>Home Point Recorded Taking</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,124 +762,349 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Drag a box around or tap a target on screen Then tap Go</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>2-12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Low Power</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2-8</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Low Power Aircraft is returning to the Home Point</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0-8</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>6-10</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0-10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0-10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>19</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GEO Zone Info:</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking</t>
+          <t>Home Point Recorded Taking off</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,349 +762,124 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Low Power</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2-8</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>17</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Low Power Aircraft is returning to the Home Point</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0-8</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>18</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>18</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>19</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>19</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>GEO Zone Info:</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>20</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
